--- a/MS/Integrate/NO2PhO2SOPh/NO2PhO2SOPh-v1-v5.xlsx
+++ b/MS/Integrate/NO2PhO2SOPh/NO2PhO2SOPh-v1-v5.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,7 +92,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -145,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,20 +168,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -226,7 +248,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -267,18 +289,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -373,11 +383,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44204301"/>
-        <c:axId val="93964342"/>
+        <c:axId val="91194743"/>
+        <c:axId val="87540151"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44204301"/>
+        <c:axId val="91194743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,21 +406,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93964342"/>
+        <c:crossAx val="87540151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93964342"/>
+        <c:axId val="87540151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,16 +455,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44204301"/>
+        <c:crossAx val="91194743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -469,17 +493,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -495,7 +508,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -536,17 +549,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -640,17 +643,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43795830"/>
-        <c:axId val="47636842"/>
+        <c:axId val="4654382"/>
+        <c:axId val="91491367"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43795830"/>
+        <c:axId val="4654382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -663,21 +666,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47636842"/>
+        <c:crossAx val="91491367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47636842"/>
+        <c:axId val="91491367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +702,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -705,16 +715,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43795830"/>
+        <c:crossAx val="4654382"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -736,17 +753,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -767,15 +773,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:colOff>137520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>257760</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -783,8 +789,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29160" y="1568520"/>
-        <a:ext cx="5766840" cy="3241080"/>
+        <a:off x="137520" y="2371680"/>
+        <a:ext cx="5766480" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -796,16 +802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>470520</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437040</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -813,8 +819,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4214880" y="1135800"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6108120" y="2378880"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -835,34 +841,35 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W19" activeCellId="0" sqref="W19"/>
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="23" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,7 +882,7 @@
       <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
@@ -887,7 +894,7 @@
       <c r="H1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="0" t="s">
@@ -899,7 +906,7 @@
       <c r="L1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="0" t="s">
@@ -911,7 +918,7 @@
       <c r="P1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="0" t="s">
@@ -923,12 +930,12 @@
       <c r="T1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -940,7 +947,7 @@
       <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -952,7 +959,7 @@
       <c r="H2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -964,7 +971,7 @@
       <c r="L2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
@@ -976,7 +983,7 @@
       <c r="P2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -988,21 +995,21 @@
       <c r="T2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -1014,7 +1021,7 @@
       <c r="D3" s="0" t="n">
         <v>2392.6</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>13533.1</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -1026,7 +1033,7 @@
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>9732.4</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -1038,7 +1045,7 @@
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="2" t="n">
         <v>7642.6</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -1050,7 +1057,7 @@
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="2" t="n">
         <v>8215.5</v>
       </c>
       <c r="R3" s="0" t="n">
@@ -1062,24 +1069,24 @@
       <c r="T3" s="0" t="n">
         <v>792.8</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="2" t="n">
         <v>12853.5</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <f aca="false">A3</f>
         <v>30</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3" s="3" t="n">
         <f aca="false">(E3+I3+M3+Q3+U3)/5</f>
         <v>10395.42</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3" s="3" t="n">
         <f aca="false">(Q3+U3)/2</f>
         <v>10534.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -1091,7 +1098,7 @@
       <c r="D4" s="0" t="n">
         <v>1090.2</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>14227.1</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -1103,7 +1110,7 @@
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>10824.9</v>
       </c>
       <c r="J4" s="0" t="n">
@@ -1115,7 +1122,7 @@
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="2" t="n">
         <v>6600.5</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -1127,7 +1134,7 @@
       <c r="P4" s="0" t="n">
         <v>4140.3</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="2" t="n">
         <v>47819.5</v>
       </c>
       <c r="R4" s="0" t="n">
@@ -1139,24 +1146,24 @@
       <c r="T4" s="0" t="n">
         <v>4012.6</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="2" t="n">
         <v>55737</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <f aca="false">A4</f>
         <v>60</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="3" t="n">
         <f aca="false">(E4+I4+M4+Q4+U4)/5</f>
         <v>27041.8</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4" s="3" t="n">
         <f aca="false">(Q4+U4)/2</f>
         <v>51778.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -1168,7 +1175,7 @@
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>5041.7</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -1180,7 +1187,7 @@
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>1326.5</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -1192,7 +1199,7 @@
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="2" t="n">
         <v>2301.4</v>
       </c>
       <c r="N5" s="0" t="n">
@@ -1204,7 +1211,7 @@
       <c r="P5" s="0" t="n">
         <v>3845.3</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="2" t="n">
         <v>66204.9</v>
       </c>
       <c r="R5" s="0" t="n">
@@ -1216,24 +1223,24 @@
       <c r="T5" s="0" t="n">
         <v>3581.5</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="2" t="n">
         <v>57504.9</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <f aca="false">A5</f>
         <v>120</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="3" t="n">
         <f aca="false">(E5+I5+M5+Q5+U5)/5</f>
         <v>26475.88</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="3" t="n">
         <f aca="false">(Q5+U5)/2</f>
         <v>61854.9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -1245,7 +1252,7 @@
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>9427.5</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -1257,7 +1264,7 @@
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>7105.3</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -1269,7 +1276,7 @@
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="2" t="n">
         <v>6443.8</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -1281,7 +1288,7 @@
       <c r="P6" s="0" t="n">
         <v>6512.1</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="2" t="n">
         <v>72534</v>
       </c>
       <c r="R6" s="0" t="n">
@@ -1293,24 +1300,24 @@
       <c r="T6" s="0" t="n">
         <v>3137.6</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="2" t="n">
         <v>52344.4</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <f aca="false">A6</f>
         <v>150</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6" s="3" t="n">
         <f aca="false">(E6+I6+M6+Q6+U6)/5</f>
         <v>29571</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="3" t="n">
         <f aca="false">(Q6+U6)/2</f>
         <v>62439.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -1322,7 +1329,7 @@
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>6245.2</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -1334,7 +1341,7 @@
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <v>2965.8</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -1346,7 +1353,7 @@
       <c r="L7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="2" t="n">
         <v>3150</v>
       </c>
       <c r="N7" s="0" t="n">
@@ -1358,7 +1365,7 @@
       <c r="P7" s="0" t="n">
         <v>4722</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="2" t="n">
         <v>61193.4</v>
       </c>
       <c r="R7" s="0" t="n">
@@ -1370,24 +1377,24 @@
       <c r="T7" s="0" t="n">
         <v>3169.8</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="2" t="n">
         <v>61256.1</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <f aca="false">A7</f>
         <v>180</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7" s="3" t="n">
         <f aca="false">(E7+I7+M7+Q7+U7)/5</f>
         <v>26962.1</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="3" t="n">
         <f aca="false">(Q7+U7)/2</f>
         <v>61224.75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -1399,7 +1406,7 @@
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>4267.5</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -1411,7 +1418,7 @@
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
         <v>3282.3</v>
       </c>
       <c r="J8" s="0" t="n">
@@ -1423,7 +1430,7 @@
       <c r="L8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="2" t="n">
         <v>1048.1</v>
       </c>
       <c r="N8" s="0" t="n">
@@ -1435,7 +1442,7 @@
       <c r="P8" s="0" t="n">
         <v>4020.9</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="2" t="n">
         <v>59859.6</v>
       </c>
       <c r="R8" s="0" t="n">
@@ -1447,24 +1454,24 @@
       <c r="T8" s="0" t="n">
         <v>4208.6</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="2" t="n">
         <v>59631.5</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <f aca="false">A8</f>
         <v>240</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="3" t="n">
         <f aca="false">(E8+I8+M8+Q8+U8)/5</f>
         <v>25617.8</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8" s="3" t="n">
         <f aca="false">(Q8+U8)/2</f>
         <v>59745.55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -1476,7 +1483,7 @@
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>5693.4</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -1488,7 +1495,7 @@
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <v>2620.5</v>
       </c>
       <c r="J9" s="0" t="n">
@@ -1500,7 +1507,7 @@
       <c r="L9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -1512,7 +1519,7 @@
       <c r="P9" s="0" t="n">
         <v>3694.4</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="2" t="n">
         <v>63585.2</v>
       </c>
       <c r="R9" s="0" t="n">
@@ -1524,24 +1531,24 @@
       <c r="T9" s="0" t="n">
         <v>3609.2</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="2" t="n">
         <v>60937.5</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <f aca="false">A9</f>
         <v>300</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="3" t="n">
         <f aca="false">(E9+I9+M9+Q9+U9)/5</f>
         <v>26567.32</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="3" t="n">
         <f aca="false">(Q9+U9)/2</f>
         <v>62261.35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>450</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -1553,7 +1560,7 @@
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>2986.3</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -1565,7 +1572,7 @@
       <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="2" t="n">
         <v>2486.8</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -1577,7 +1584,7 @@
       <c r="L10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="2" t="n">
         <v>3219.5</v>
       </c>
       <c r="N10" s="0" t="n">
@@ -1589,7 +1596,7 @@
       <c r="P10" s="0" t="n">
         <v>3806</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="2" t="n">
         <v>67017.2</v>
       </c>
       <c r="R10" s="0" t="n">
@@ -1601,24 +1608,24 @@
       <c r="T10" s="0" t="n">
         <v>1620.7</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="2" t="n">
         <v>53848.6</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <f aca="false">A10</f>
         <v>450</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="3" t="n">
         <f aca="false">(E10+I10+M10+Q10+U10)/5</f>
         <v>25911.68</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="3" t="n">
         <f aca="false">(Q10+U10)/2</f>
         <v>60432.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>600</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -1630,7 +1637,7 @@
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>7059.7</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -1642,7 +1649,7 @@
       <c r="H11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="2" t="n">
         <v>5709.6</v>
       </c>
       <c r="J11" s="0" t="n">
@@ -1654,7 +1661,7 @@
       <c r="L11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="2" t="n">
         <v>3055.9</v>
       </c>
       <c r="N11" s="0" t="n">
@@ -1666,7 +1673,7 @@
       <c r="P11" s="0" t="n">
         <v>4686.6</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="2" t="n">
         <v>67944.7</v>
       </c>
       <c r="R11" s="0" t="n">
@@ -1678,24 +1685,24 @@
       <c r="T11" s="0" t="n">
         <v>3342.2</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="2" t="n">
         <v>68822</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <f aca="false">A11</f>
         <v>600</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="3" t="n">
         <f aca="false">(E11+I11+M11+Q11+U11)/5</f>
         <v>30518.38</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11" s="3" t="n">
         <f aca="false">(Q11+U11)/2</f>
         <v>68383.35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>750</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -1707,7 +1714,7 @@
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>3278</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -1719,7 +1726,7 @@
       <c r="H12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="2" t="n">
         <v>5674.6</v>
       </c>
       <c r="J12" s="0" t="n">
@@ -1731,7 +1738,7 @@
       <c r="L12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="2" t="n">
         <v>4163</v>
       </c>
       <c r="N12" s="0" t="n">
@@ -1743,7 +1750,7 @@
       <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="2" t="n">
         <v>32025.5</v>
       </c>
       <c r="R12" s="0" t="n">
@@ -1755,24 +1762,24 @@
       <c r="T12" s="0" t="n">
         <v>3654.7</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="U12" s="2" t="n">
         <v>66410.5</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <f aca="false">A12</f>
         <v>750</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12" s="3" t="n">
         <f aca="false">(E12+I12+M12+Q12+U12)/5</f>
         <v>22310.32</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="3" t="n">
         <f aca="false">(Q12+U12)/2</f>
         <v>49218</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>900</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -1784,7 +1791,7 @@
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -1796,7 +1803,7 @@
       <c r="H13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
@@ -1808,7 +1815,7 @@
       <c r="L13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="0" t="n">
@@ -1820,7 +1827,7 @@
       <c r="P13" s="0" t="n">
         <v>3179.6</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="Q13" s="2" t="n">
         <v>45647.8</v>
       </c>
       <c r="R13" s="0" t="n">
@@ -1832,18 +1839,18 @@
       <c r="T13" s="0" t="n">
         <v>2865.4</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="U13" s="2" t="n">
         <v>48247.2</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="1" t="n">
         <f aca="false">A13</f>
         <v>900</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13" s="3" t="n">
         <f aca="false">(E13+I13+M13+Q13+U13)/5</f>
         <v>18779</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="3" t="n">
         <f aca="false">(Q13+U13)/2</f>
         <v>46947.5</v>
       </c>
